--- a/Individuales/mayo/Federico_Molina_mayo.xlsx
+++ b/Individuales/mayo/Federico_Molina_mayo.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;USD&quot; #,##0.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;USD&quot; #,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -29,7 +29,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -69,10 +74,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -97,22 +111,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -477,39 +492,39 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Descripcion</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Pesos</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Dolares</t>
         </is>
@@ -521,20 +536,18 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5/31/2025</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>45808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Familia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>1587959</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -544,10 +557,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>45791</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -559,10 +570,10 @@
           <t>En proceso</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>4243001</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,10 +583,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5/9/2025</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -587,10 +596,10 @@
           <t>Revisar documento</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>4209139</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,10 +609,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5/28/2025</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -615,10 +622,10 @@
           <t>Urgente</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>3032997</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,10 +635,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>45806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -643,10 +648,10 @@
           <t>Revisar documento</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>2955104</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,10 +661,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5/15/2025</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>45792</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -671,10 +674,10 @@
           <t>Urgente</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>1056365</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -684,10 +687,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5/1/2025</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -699,10 +700,10 @@
           <t>Revisar documento</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>3639528</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,10 +713,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>45791</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -727,10 +726,10 @@
           <t>Aprobado por gerencia</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>4904432</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,10 +739,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5/5/2025</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -755,10 +752,10 @@
           <t>Sin novedades</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>4375108</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,10 +765,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5/3/2025</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>45780</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -783,10 +778,10 @@
           <t>Confirmado por cliente</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>1771337</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,10 +791,8 @@
           <t>Federico Molina</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5/10/2025</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>45787</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -811,24 +804,24 @@
           <t>Pendiente de facturacion</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>2772540</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <f>SUM(E2:E12)</f>
         <v/>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <f>SUM(F2:F12)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>